--- a/medicine/Enfance/Microbes_(Côte_d'Ivoire)/Microbes_(Côte_d'Ivoire).xlsx
+++ b/medicine/Enfance/Microbes_(Côte_d'Ivoire)/Microbes_(Côte_d'Ivoire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Microbes_(C%C3%B4te_d%27Ivoire)</t>
+          <t>Microbes_(Côte_d'Ivoire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les enfants microbes sont en Côte d'Ivoire le nom donné aux enfants criminels[1]. Ces enfants qui sont le plus souvent issus des rues font preuve d'une extrême violence dans les crimes qu'ils commettent. Le surnom microbes leur est donné du fait que comme de véritables microbes, ils sont petits de taille mais avec des effets ravageurs. Cette criminalité juvénile est née dans la commune d’Abobo avant de s'exporter vers d'autres quartiers d'Abidjan et du pays. Les microbes sont constitués en grande majorité d'enfants issus des milieux défavorisés d’Abidjan donc très pauvres[2],[3]. Ils sont le plus souvent des mineurs, essentiellement âgés de huit à dix-sept ans[4], déscolarisés ou analphabètes, désœuvrés, déshérités ou abandonnés par leurs géniteurs. Ces enfants qui ont vécu de près les exactions dues à la crise politique de 2010 en Côte d'ivoire[5], ont fini par acquérir la conviction que non seulement il est normal et mais aussi et surtout possible d’avoir tout ce que l'on désir par la force et la violence[4],[6].
-Malgré toutes les dispositions nationales et internationales adoptées par les autorités ivoiriennes et les cinq ministères qui s'en occupent, le phénomène des microbes perdure et surtout s'accroît. Cet état de chose engendre chez les populations un sentiment d'impunité et de laisser-aller; ce qui les poussent à s'organiser en groupes d’autodéfenses qui traquent et tuent les microbes[4]. Cette forme de délinquance juvénile est devenue si grande qu'elle est l'objet d'une série télévisée scénarisée par Alex Ogou, produite par TSK STUDIOS et coproduite par Canal+ International  intitulée : Invisibles[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les enfants microbes sont en Côte d'Ivoire le nom donné aux enfants criminels. Ces enfants qui sont le plus souvent issus des rues font preuve d'une extrême violence dans les crimes qu'ils commettent. Le surnom microbes leur est donné du fait que comme de véritables microbes, ils sont petits de taille mais avec des effets ravageurs. Cette criminalité juvénile est née dans la commune d’Abobo avant de s'exporter vers d'autres quartiers d'Abidjan et du pays. Les microbes sont constitués en grande majorité d'enfants issus des milieux défavorisés d’Abidjan donc très pauvres,. Ils sont le plus souvent des mineurs, essentiellement âgés de huit à dix-sept ans, déscolarisés ou analphabètes, désœuvrés, déshérités ou abandonnés par leurs géniteurs. Ces enfants qui ont vécu de près les exactions dues à la crise politique de 2010 en Côte d'ivoire, ont fini par acquérir la conviction que non seulement il est normal et mais aussi et surtout possible d’avoir tout ce que l'on désir par la force et la violence,.
+Malgré toutes les dispositions nationales et internationales adoptées par les autorités ivoiriennes et les cinq ministères qui s'en occupent, le phénomène des microbes perdure et surtout s'accroît. Cet état de chose engendre chez les populations un sentiment d'impunité et de laisser-aller; ce qui les poussent à s'organiser en groupes d’autodéfenses qui traquent et tuent les microbes. Cette forme de délinquance juvénile est devenue si grande qu'elle est l'objet d'une série télévisée scénarisée par Alex Ogou, produite par TSK STUDIOS et coproduite par Canal+ International  intitulée : Invisibles,.
 </t>
         </is>
       </c>
